--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9619FBA7-2007-4BCD-89CF-281233332D54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083E634-C211-40A8-BE4B-3F7AFF7DFA8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -191,13 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RB：格闘</t>
-    <rPh sb="3" eb="5">
-      <t>カクトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RT：射撃</t>
     <rPh sb="3" eb="5">
       <t>シャゲキ</t>
@@ -238,6 +231,230 @@
     <rPh sb="2" eb="3">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB短押し：踏み付け</t>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB長押し：上昇</t>
+    <rPh sb="2" eb="4">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT：格闘</t>
+    <rPh sb="3" eb="5">
+      <t>カクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公機</t>
+    <rPh sb="0" eb="4">
+      <t>シュジンコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物オブジェクト</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物（防壁）</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ボウヘキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲撃用高台</t>
+    <rPh sb="0" eb="3">
+      <t>ホウゲキヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でっかい壁</t>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wall00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wall01.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>largewall.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション横長</t>
+    <rPh sb="5" eb="7">
+      <t>ヨコナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bill00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション細長</t>
+    <rPh sb="5" eb="7">
+      <t>ホソナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bill01.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらべった建物</t>
+    <rPh sb="5" eb="7">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bill02.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋上用出口</t>
+    <rPh sb="0" eb="3">
+      <t>オクジョウヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rooftop00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脆壊れるオブジェクト</t>
+    <rPh sb="0" eb="1">
+      <t>モロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>針葉樹</t>
+    <rPh sb="0" eb="3">
+      <t>シンヨウジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tree.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>car00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>car01.x</t>
+  </si>
+  <si>
+    <t>car02.x</t>
+  </si>
+  <si>
+    <t>信号機</t>
+    <rPh sb="0" eb="3">
+      <t>シンゴウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trafficlight.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>container00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街灯</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>streetlight.x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -284,7 +501,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -501,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +759,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,6 +839,595 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591670</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A61ACF2-B833-4550-8B24-605D1EAEDD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4141694" y="1308847"/>
+          <a:ext cx="1156447" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>踏みつけ実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEBFE20-2785-44A3-B250-D175B1818DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4132730" y="1855694"/>
+          <a:ext cx="1156447" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投げ実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7490-0039-4BB9-97AE-9B13A2578DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8857130" y="1353670"/>
+          <a:ext cx="1156447" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マップ完成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5623FBE3-2329-4B5A-BC55-544249792779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536707" y="1389529"/>
+          <a:ext cx="1156447" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵配置完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600637</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A13317-EC7F-424A-8DD1-689E314F8267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563602" y="2034988"/>
+          <a:ext cx="1156447" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボス実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591671</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43043E1-F41D-4225-AA49-30DBB3BF4AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4141695" y="2465294"/>
+          <a:ext cx="1156447" cy="564776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追撃実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600637</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF0D8D2-BD5A-4AD6-A7F8-B1D3F0269614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8857131" y="1999130"/>
+          <a:ext cx="1156447" cy="564776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の種類実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26895</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>645458</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D599168-42DC-4D80-8712-E5E2D582D669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8767483" y="2680447"/>
+          <a:ext cx="1290916" cy="564776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>部位別</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モーション実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBDE38C-9FE4-4047-A20E-D3298EE57376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16199224" y="2698376"/>
+          <a:ext cx="3263152" cy="564776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>演出強化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1023,7 +1840,7 @@
   <dimension ref="A2:AJ17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1645,15 +2462,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A38A12-6232-4C93-9CA8-55DC3EFCA6C9}">
-  <dimension ref="A2:T16"/>
+  <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1699,42 +2517,52 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="23.4">
-      <c r="B10" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="23.4">
+      <c r="B12" s="23" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="23.4">
       <c r="B16" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1865,13 +2693,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE785ED-BD4A-47E7-AD08-7BB101D0DE5A}">
-  <dimension ref="A2:T2"/>
+  <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="16.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="23.4">
       <c r="A2" s="2"/>
@@ -1896,6 +2732,199 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083E634-C211-40A8-BE4B-3F7AFF7DFA8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D1A216-EB18-4CE0-9ACC-33ED97D795FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -455,6 +455,109 @@
   </si>
   <si>
     <t>streetlight.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定しないもの</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道路</t>
+    <rPh sb="0" eb="2">
+      <t>ドウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柵</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baricade.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bridge00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後のデカ建物</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bill03.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下の壁</t>
+    <rPh sb="0" eb="2">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲道</t>
+    <rPh sb="0" eb="2">
+      <t>マガリミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road00.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交差点</t>
+    <rPh sb="0" eb="3">
+      <t>コウサテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road02.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road01.x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -724,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,6 +867,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2695,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE785ED-BD4A-47E7-AD08-7BB101D0DE5A}">
   <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2707,6 +2813,7 @@
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="16.09765625" customWidth="1"/>
+    <col min="13" max="14" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="23.4">
@@ -2753,6 +2860,12 @@
       <c r="K4" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="M4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -2767,11 +2880,26 @@
       <c r="G5" s="26" t="s">
         <v>40</v>
       </c>
+      <c r="H5" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="J5" s="26" t="s">
         <v>52</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>53</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
@@ -2787,11 +2915,26 @@
       <c r="G6" s="26" t="s">
         <v>41</v>
       </c>
+      <c r="H6" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="26" t="s">
         <v>54</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>55</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
@@ -2809,6 +2952,18 @@
       <c r="K7" s="26" t="s">
         <v>56</v>
       </c>
+      <c r="L7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B8" s="26"/>
@@ -2819,12 +2974,20 @@
       <c r="G8" s="26" t="s">
         <v>44</v>
       </c>
+      <c r="H8" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="J8" s="26" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>57</v>
       </c>
+      <c r="L8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="26"/>
@@ -2835,12 +2998,17 @@
       <c r="G9" s="26" t="s">
         <v>46</v>
       </c>
+      <c r="H9" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="J9" s="26" t="s">
         <v>58</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>59</v>
       </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="26"/>
@@ -2851,12 +3019,20 @@
       <c r="G10" s="26" t="s">
         <v>48</v>
       </c>
+      <c r="H10" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="26" t="s">
         <v>60</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>61</v>
       </c>
+      <c r="L10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B11" s="26"/>
@@ -2873,30 +3049,52 @@
       <c r="K11" s="26" t="s">
         <v>63</v>
       </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="26"/>
@@ -2905,6 +3103,8 @@
       <c r="G15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="26"/>
@@ -2913,22 +3113,27 @@
       <c r="G16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D1A216-EB18-4CE0-9ACC-33ED97D795FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B26BBD-341C-49D9-888F-D122B9B339B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="エフェクトリスト" sheetId="8" r:id="rId7"/>
     <sheet name="モデルリスト" sheetId="4" r:id="rId8"/>
     <sheet name="サウンドリスト" sheetId="5" r:id="rId9"/>
+    <sheet name="ボス行動" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -558,6 +559,159 @@
   </si>
   <si>
     <t>road01.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザー発射</t>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子機射出</t>
+    <rPh sb="0" eb="2">
+      <t>コキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル発射</t>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面斬る斬撃</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マシンガン撃ちながら移動</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時限爆弾、地雷、ばらまく</t>
+    <rPh sb="0" eb="4">
+      <t>ジゲンバクダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏差撃ちしてくる</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ用のやつ</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャブ程度の小ミサを四発くらい撃ってくる</t>
+    <rPh sb="3" eb="5">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨンハツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬った場所が爆発する</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中に飛ばせる理由</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後退しながら子機射出</t>
+    <rPh sb="0" eb="2">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離をとるためだけど、プレイヤーになげさせるため</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避しながらミサイル発射</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離をとる</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1885,6 +2039,91 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="41.8984375" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AACBB2-9B80-4F7B-9AB2-6A3C6F37B303}">
   <dimension ref="A1:T7"/>
@@ -2762,7 +3001,7 @@
   <dimension ref="A2:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2801,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE785ED-BD4A-47E7-AD08-7BB101D0DE5A}">
   <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B26BBD-341C-49D9-888F-D122B9B339B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F9F091-95C9-4749-BFFB-38134F9F192A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -711,6 +711,50 @@
     <t>距離をとる</t>
     <rPh sb="0" eb="2">
       <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二形態変化</t>
+    <rPh sb="0" eb="4">
+      <t>ダイニケイタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面にクレーターを作る</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接攻撃特化</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -796,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -977,11 +1021,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1026,6 +1115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2041,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2053,69 +2146,100 @@
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1"/>
+    <row r="11" spans="1:3">
+      <c r="B11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="B13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F9F091-95C9-4749-BFFB-38134F9F192A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC32D4-31F8-4B7F-B182-4859ED1C87D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -569,23 +569,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>子機射出</t>
-    <rPh sb="0" eb="2">
-      <t>コキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミサイル発射</t>
-    <rPh sb="4" eb="6">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地面斬る斬撃</t>
     <rPh sb="0" eb="2">
       <t>ジメン</t>
@@ -609,16 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時限爆弾、地雷、ばらまく</t>
-    <rPh sb="0" eb="4">
-      <t>ジゲンバクダン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>偏差撃ちしてくる</t>
     <rPh sb="0" eb="2">
       <t>ヘンサ</t>
@@ -629,29 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ用のやつ</t>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャブ程度の小ミサを四発くらい撃ってくる</t>
-    <rPh sb="3" eb="5">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨンハツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>斬った場所が爆発する</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
@@ -665,19 +615,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>空中に飛ばせる理由</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>後退しながら子機射出</t>
     <rPh sb="0" eb="2">
       <t>コウタイ</t>
@@ -746,15 +683,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近接攻撃特化</t>
+    <t>通常斬撃</t>
     <rPh sb="0" eb="2">
-      <t>キンセツ</t>
+      <t>ツウジョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トッカ</t>
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近づいてきて斬ってくる</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2134,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2149,97 +2093,78 @@
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="1:3">
-      <c r="B7" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="28" t="s">
         <v>90</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1"/>
-    <row r="11" spans="1:3">
-      <c r="B11" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC32D4-31F8-4B7F-B182-4859ED1C87D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B71C2-D0A5-457D-9513-3F4F0E0B2BED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -699,6 +699,46 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中時間長すぎ</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム強すぎる</t>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローン出すぎ</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃タイミングない、立ち止まらせる</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2078,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2164,6 +2204,22 @@
       </c>
       <c r="C10" s="12" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B71C2-D0A5-457D-9513-3F4F0E0B2BED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D917E-9D0D-40BB-81E0-58E8F82ED09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,13 +645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>距離をとる</t>
-    <rPh sb="0" eb="2">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>済</t>
     <rPh sb="0" eb="1">
       <t>スミ</t>
@@ -739,6 +732,19 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち止まってミサイルを撃ってくる</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2121,7 +2127,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2133,7 +2139,7 @@
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>80</v>
@@ -2144,7 +2150,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>82</v>
@@ -2155,7 +2161,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>85</v>
@@ -2166,27 +2172,27 @@
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" thickBot="1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="1:3">
       <c r="B7" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="11"/>
     </row>
@@ -2200,26 +2206,26 @@
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D917E-9D0D-40BB-81E0-58E8F82ED09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9903D-CFCD-4C83-9CD6-34810903737A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -745,6 +745,22 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に近づいているときカメラの動き変える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2124,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2226,6 +2242,11 @@
       </c>
       <c r="C13" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9903D-CFCD-4C83-9CD6-34810903737A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FFD1B-DA57-4683-BEF3-CCCD1F1F9ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -761,6 +761,77 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内積</t>
+    <rPh sb="0" eb="2">
+      <t>ナイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vec1 ・ vec2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(vec1.x * vec2.x) + …</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cosΘ = vec1・vec2 / a *b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外積</t>
+    <rPh sb="0" eb="2">
+      <t>ガイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a*b*sinΘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a×b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a*bで垂直ベクトル</t>
+    <rPh sb="4" eb="6">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ab面積と同じ値になる</t>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法線があれば平面が出せる</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1843,6 +1914,858 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF250B24-945F-40C9-9E5F-2B08335F5C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10157460" y="533400"/>
+          <a:ext cx="1196340" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55D349C-EF2E-4AD0-A900-CCEEED84045D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10165080" y="1676400"/>
+          <a:ext cx="1546860" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C7B91C-2033-4F99-B656-A1B377CC37C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10949940" y="899160"/>
+          <a:ext cx="7620" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1996440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EF0332-818E-4C9A-A025-23A7669B94AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5859780" y="3192780"/>
+          <a:ext cx="2156460" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4221480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92A6B1E-3548-4B9C-A92B-FEAF842FCE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8084820" y="3124200"/>
+          <a:ext cx="960120" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>vecLine</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3017520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9205839F-9184-4C91-8F27-22CED8CE09BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6797040" y="2842260"/>
+          <a:ext cx="83820" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3558540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068C6E82-0F07-40AF-B230-AF4FF5FF425B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7421880" y="3550920"/>
+          <a:ext cx="960120" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>posOld</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83C5A20-078A-4E3D-9E30-B0478D3D9E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482840" y="2667000"/>
+          <a:ext cx="960120" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>pos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2293620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3253740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5C8308-81B6-4BB2-BC28-004E4C1DF3E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6156960" y="3642360"/>
+          <a:ext cx="960120" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fRate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1996440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323D285F-3B5F-4F9C-8947-FA16CCC9E947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5783580" y="3550920"/>
+          <a:ext cx="76200" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1927860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2941320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B818DEB4-68B7-41D4-BB9A-05AF0E142E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5791200" y="3726180"/>
+          <a:ext cx="1013460" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1996440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3017520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC871B8-73EA-4521-8AEC-9A30E1FDB2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5859780" y="2834640"/>
+          <a:ext cx="1021080" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4107180</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4191000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7736310-77C9-4BF0-88D3-A77BF0481238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7970520" y="2621280"/>
+          <a:ext cx="83820" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2004060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4213860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B6529F-7346-4967-8DFE-A4E6E0D9858C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5867400" y="2667000"/>
+          <a:ext cx="2209800" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3D37A5-790B-499B-B5AF-F78CDDDE2D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5783580" y="3505200"/>
+          <a:ext cx="2232660" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2140,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2152,8 +3075,8 @@
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2164,7 +3087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2175,7 +3098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2185,8 +3108,11 @@
       <c r="C4" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -2197,8 +3123,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.600000000000001" thickBot="1"/>
-    <row r="7" spans="1:3">
+    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="7" spans="1:7">
       <c r="B7" s="28" t="s">
         <v>89</v>
       </c>
@@ -2206,37 +3132,51 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="B8" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="B9" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>97</v>
       </c>
@@ -2244,15 +3184,44 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="15" spans="1:7">
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FFD1B-DA57-4683-BEF3-CCCD1F1F9ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB9E20-9D7E-43BA-B669-C84ADC67D76E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -832,6 +832,33 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二形態行動AI</t>
+    <rPh sb="0" eb="4">
+      <t>ダイニケイタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牽制のビーム</t>
+    <rPh sb="0" eb="2">
+      <t>ケンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二発ぐらい撃ってくる</t>
+    <rPh sb="0" eb="2">
+      <t>ニハツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -917,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1143,11 +1170,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1196,6 +1249,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2073,13 +2128,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1996440</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2126,13 +2181,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4221480</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2193,13 +2248,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3017520</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2246,13 +2301,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3558540</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2313,13 +2368,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3619500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2380,13 +2435,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2293620</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3253740</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2447,13 +2502,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1920240</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1996440</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2501,13 +2556,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1927860</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2941320</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2555,13 +2610,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1996440</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3017520</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2609,13 +2664,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4107180</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4191000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2662,13 +2717,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2004060</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4213860</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2716,13 +2771,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1920240</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2764,6 +2819,1208 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1836420</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E560D710-BE69-4F6C-AE6F-639A4F573CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1030493" y="4948069"/>
+          <a:ext cx="4669715" cy="4641807"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2483224</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2796988</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775D309D-0362-4A8E-B911-29CD5E18D386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3155577" y="7073153"/>
+          <a:ext cx="313764" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2384611</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>216434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2743199</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E338B4-1F3A-4065-A686-C520EE87C64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056964" y="5344246"/>
+          <a:ext cx="358588" cy="384201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2471896</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2751902</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>196735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 上下 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89D578E-9FF6-47FB-BA5C-4E19D6CB6021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21409935">
+          <a:off x="3144249" y="5768513"/>
+          <a:ext cx="280006" cy="1187610"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2940423</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2303929</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD302804-78F6-467A-8EA8-D265BA35940E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3612776" y="5979458"/>
+          <a:ext cx="2554941" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>基本的に一定距離を保つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>近かったらバックステップなど</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2715858</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>150041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F1F9AE-8BFA-4826-A61D-6E05945CBEA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6579646" y="4831528"/>
+          <a:ext cx="4669715" cy="4641807"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B541F-CAAA-4BBA-B00C-F659E252A9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10022542" y="7915836"/>
+          <a:ext cx="313764" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3550024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3908612</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347B71F6-1C48-4525-85E5-3C1C78DE8AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7413812" y="5675940"/>
+          <a:ext cx="358588" cy="384201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3685539</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>202731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227071</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 下 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E53A4C-F7F4-4A67-A0FA-EF0D61E999CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18692044">
+          <a:off x="8720175" y="5558189"/>
+          <a:ext cx="448235" cy="2789932"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FB3BA7-8A27-4D48-9A50-6A3017727676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9108141" y="6158752"/>
+          <a:ext cx="2554941" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一定確率で突進して斬ってくる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>距離を詰める唯一の行動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>376069</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1854349</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>132111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="楕円 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC26457-A0A2-4504-91F7-B7776EE853B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1048422" y="9708328"/>
+          <a:ext cx="4669715" cy="4641807"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2779059</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3092823</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA78C024-0713-473F-812F-5A385971DBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3451412" y="10515601"/>
+          <a:ext cx="313764" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2402540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2761128</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B399C64B-B545-443A-8A79-4BCCDAE849CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3074893" y="10104505"/>
+          <a:ext cx="358588" cy="384201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3137646</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D94BEE3-D639-47C4-B4FC-429CFB667A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4446493" y="11116234"/>
+          <a:ext cx="2554941" cy="1281953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追い詰めると、二段階のステップで離れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージにおけるプレイヤーの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>反対方向を目的地とする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1748089</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2196324</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>150986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矢印: 下 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5E6FCE-19DA-41B2-91FA-52D1B91277EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2267780">
+          <a:off x="2420442" y="10419930"/>
+          <a:ext cx="448235" cy="1152091"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1701709</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2083361</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矢印: 下 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BFD5BC-6913-4D41-9F4E-0B13D42D6A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20543435">
+          <a:off x="2374062" y="11813022"/>
+          <a:ext cx="381652" cy="1539446"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2454702</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>118753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2902937</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>179255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矢印: 下 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7276FCDB-57C7-4EDB-85F2-E42E0CA37E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="608897">
+          <a:off x="3127055" y="11073624"/>
+          <a:ext cx="448235" cy="2391325"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2528047</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2814917</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9623F9D-932D-4C7C-A4DF-08FDC2326268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="12084423"/>
+          <a:ext cx="286870" cy="286871"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3063,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3149,72 +4406,85 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="B11" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="G11" t="s">
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
         <v>97</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="G15" t="s">
+    <row r="16" spans="1:7">
+      <c r="G16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
-      <c r="G17" t="s">
+    <row r="18" spans="2:7">
+      <c r="G18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
-      <c r="G18" t="s">
+    <row r="19" spans="2:7">
+      <c r="G19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
-      <c r="G19" t="s">
+    <row r="20" spans="2:7">
+      <c r="G20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
+    <row r="22" spans="2:7">
+      <c r="C22" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB9E20-9D7E-43BA-B669-C84ADC67D76E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576933D-128E-4111-815F-C06A0E342AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -859,6 +859,16 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空にあがる大技</t>
+    <rPh sb="0" eb="1">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オオワザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4322,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4401,6 +4411,9 @@
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576933D-128E-4111-815F-C06A0E342AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811F162-DB10-4CBC-A87B-70F9236CA20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -869,6 +869,127 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>オオワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラストマスターまでにやること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスの第一形態位置の修正、登場演出追加</t>
+    <rPh sb="3" eb="5">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>トウジョウエンシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの登場演出追加</t>
+    <rPh sb="6" eb="10">
+      <t>トウジョウエンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一形態のビーム発射時のエフェクト追加</t>
+    <rPh sb="0" eb="4">
+      <t>ダイイチケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ハッシャジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道中の敵の配置</t>
+    <rPh sb="0" eb="2">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中ボス追加</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道中の位置制限の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬撃命中時のビジュアルエフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>メイチュウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵死亡・ダメージ時のリアクション</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面制作</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4330,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4498,6 +4619,56 @@
     <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811F162-DB10-4CBC-A87B-70F9236CA20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C49B30-1701-4300-B375-11887F9C79C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="概要" sheetId="2" r:id="rId2"/>
     <sheet name="ガントチャート" sheetId="7" r:id="rId3"/>
-    <sheet name="プレイヤー操作" sheetId="9" r:id="rId4"/>
-    <sheet name="プログラム" sheetId="3" r:id="rId5"/>
-    <sheet name="UIリスト" sheetId="6" r:id="rId6"/>
-    <sheet name="エフェクトリスト" sheetId="8" r:id="rId7"/>
-    <sheet name="モデルリスト" sheetId="4" r:id="rId8"/>
-    <sheet name="サウンドリスト" sheetId="5" r:id="rId9"/>
-    <sheet name="ボス行動" sheetId="10" r:id="rId10"/>
+    <sheet name="リザルト画面" sheetId="11" r:id="rId4"/>
+    <sheet name="プレイヤー操作" sheetId="9" r:id="rId5"/>
+    <sheet name="プログラム" sheetId="3" r:id="rId6"/>
+    <sheet name="UIリスト" sheetId="6" r:id="rId7"/>
+    <sheet name="エフェクトリスト" sheetId="8" r:id="rId8"/>
+    <sheet name="モデルリスト" sheetId="4" r:id="rId9"/>
+    <sheet name="サウンドリスト" sheetId="5" r:id="rId10"/>
+    <sheet name="ボス行動" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2045,6 +2046,209 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36277BB6-5B60-4C87-BED4-0E04221FF485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="281940"/>
+          <a:ext cx="7216140" cy="4450080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BD593E-DCA2-4CC8-BDE4-E1B14583EC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2750820" y="480060"/>
+          <a:ext cx="2987040" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>ミッション完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCB9A57-4668-4043-BFB6-D8C9E3B4132E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1729740" y="1348740"/>
+          <a:ext cx="5143500" cy="2964180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -2103,7 +2307,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4450,10 +4654,51 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDC9A00-B69B-47F3-8B31-B1FC7B3BA0ED}">
+  <dimension ref="A2:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:20" ht="23.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -5367,6 +5612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603CB4EA-6DF5-43DD-AA91-7ED8251CB9AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A38A12-6232-4C93-9CA8-55DC3EFCA6C9}">
   <dimension ref="A2:T18"/>
   <sheetViews>
@@ -5471,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD2732-FD8F-4609-A9C0-3A11DA3C65CF}">
   <dimension ref="A2:T2"/>
   <sheetViews>
@@ -5511,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948EDD5E-8771-4A06-A6E5-E8BF1F42C3A6}">
   <dimension ref="A2:T2"/>
   <sheetViews>
@@ -5551,7 +5811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA5F7A4-E0FA-4478-A3D8-F04C88E4F348}">
   <dimension ref="A2:T2"/>
   <sheetViews>
@@ -5591,7 +5851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE785ED-BD4A-47E7-AD08-7BB101D0DE5A}">
   <dimension ref="A2:T18"/>
   <sheetViews>
@@ -5929,45 +6189,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDC9A00-B69B-47F3-8B31-B1FC7B3BA0ED}">
-  <dimension ref="A2:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="2" spans="1:20" ht="23.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C49B30-1701-4300-B375-11887F9C79C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1B9CC-0B05-4617-9D3C-A6FBB35E251B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -878,28 +878,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボスの第一形態位置の修正、登場演出追加</t>
-    <rPh sb="3" eb="5">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>トウジョウエンシュツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーの登場演出追加</t>
     <rPh sb="6" eb="10">
       <t>トウジョウエンシュツ</t>
@@ -991,6 +969,58 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半済</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二形態の中遠距離攻撃修正</t>
+    <rPh sb="0" eb="4">
+      <t>ダイニケイタイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>チュウエンキョリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスの第一形態位置の修正</t>
+    <rPh sb="3" eb="5">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登場演出追加</t>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4696,10 +4726,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62A084-0C32-429F-A6D1-341D3FC39236}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4866,54 +4896,70 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:4">
       <c r="C71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5615,7 +5661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603CB4EA-6DF5-43DD-AA91-7ED8251CB9AC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1B9CC-0B05-4617-9D3C-A6FBB35E251B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F4E74-CBA9-47D7-9FC9-D04C7B951472}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -4729,7 +4729,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4920,6 +4920,9 @@
     <row r="73" spans="3:4">
       <c r="C73" t="s">
         <v>127</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="3:4">

--- a/document/仕様書.xlsx
+++ b/document/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DAction_2024\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F4E74-CBA9-47D7-9FC9-D04C7B951472}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DE662E-BAE1-4734-A443-3CF077A845C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
   <si>
     <t>ハイスピード
 ロボットアクション</t>
@@ -1021,6 +1021,13 @@
     <t>済</t>
     <rPh sb="0" eb="1">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半済</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4929,6 +4936,9 @@
       <c r="C74" t="s">
         <v>125</v>
       </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" t="s">
